--- a/biology/Zoologie/Anthomyiini/Anthomyiini.xlsx
+++ b/biology/Zoologie/Anthomyiini/Anthomyiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthomyiini sont une tribu d'insectes diptères brachycères de la famille des Anthomyiidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tribu arbore des motifs blancs et noirs. Ses membres ont généralement les ailes transparentes[1]. Ils ont des yeux à trois ocelles[2].
-La plupart des espèces sont charognards mais certaines se nourrissent de nectar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu arbore des motifs blancs et noirs. Ses membres ont généralement les ailes transparentes. Ils ont des yeux à trois ocelles.
+La plupart des espèces sont charognards mais certaines se nourrissent de nectar.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (16 mai 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (16 mai 2020) :
 genre Anthomyia
 genre Botanophila
 genre Chiastocheta
